--- a/Messungen/20160624_Feuchtesensormessung.csv.xlsx
+++ b/Messungen/20160624_Feuchtesensormessung.csv.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="20160624_Feuchtesensormessung" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1969,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M379" sqref="A1:M379"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9950,7 +9950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
